--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27736833-4D96-460D-8953-BA8CDDB94AAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15DC9E-94CE-47FA-BB1B-CE39A686929D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15300" windowHeight="7875" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Usuario</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>22444445555</t>
+  </si>
+  <si>
+    <t>t123123</t>
   </si>
 </sst>
 </file>
@@ -144,10 +147,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BADCF65-26F1-47F3-B466-D5B03A486648}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +561,22 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{6A5EFB18-875B-45DD-9D98-5538241524CE}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C15DC9E-94CE-47FA-BB1B-CE39A686929D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDC4883-EA50-4028-A4C4-4CA72FBCF36B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15300" windowHeight="7875" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Usuario</t>
   </si>
@@ -69,12 +70,6 @@
     <t>codigo postal</t>
   </si>
   <si>
-    <t>RodrigoV</t>
-  </si>
-  <si>
-    <t>rodrigovilhena@rstinet.com.br</t>
-  </si>
-  <si>
     <t>Test123</t>
   </si>
   <si>
@@ -103,6 +98,18 @@
   </si>
   <si>
     <t>t123123</t>
+  </si>
+  <si>
+    <t>RodrigoVilhena</t>
+  </si>
+  <si>
+    <t>rodrigovilhenateste@rstinet.com.br</t>
+  </si>
+  <si>
+    <t>Produto busca</t>
+  </si>
+  <si>
+    <t>HP Z4000 WIRELESS MOUSE</t>
   </si>
 </sst>
 </file>
@@ -118,23 +125,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF2A2A2A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -142,19 +160,165 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,14 +631,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BADCF65-26F1-47F3-B466-D5B03A486648}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -486,97 +651,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
+      <c r="D3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="3"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6A5EFB18-875B-45DD-9D98-5538241524CE}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A0B2B-E659-44C6-A1CE-6954B3D336D3}">
+  <dimension ref="A6:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDC4883-EA50-4028-A4C4-4CA72FBCF36B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6D8DE-561E-4526-A0AE-E2EE3A74EA5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Usuario</t>
   </si>
@@ -100,23 +100,23 @@
     <t>t123123</t>
   </si>
   <si>
-    <t>RodrigoVilhena</t>
-  </si>
-  <si>
-    <t>rodrigovilhenateste@rstinet.com.br</t>
-  </si>
-  <si>
     <t>Produto busca</t>
   </si>
   <si>
     <t>HP Z4000 WIRELESS MOUSE</t>
+  </si>
+  <si>
+    <t>RodrigoVil55</t>
+  </si>
+  <si>
+    <t>rodrigovilnateste@rstinet.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF2A2A2A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,10 +305,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,8 +326,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -633,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BADCF65-26F1-47F3-B466-D5B03A486648}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,10 +701,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -747,19 +758,15 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>25</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{87F77614-4565-4D75-BA80-C984231769DA}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -767,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A0B2B-E659-44C6-A1CE-6954B3D336D3}">
   <dimension ref="A6:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -776,12 +783,12 @@
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6D8DE-561E-4526-A0AE-E2EE3A74EA5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF154C33-F9FC-4A40-9F0E-30A3CAD8A5AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
@@ -34,24 +34,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>senha</t>
   </si>
   <si>
-    <t>confirma senha</t>
-  </si>
-  <si>
-    <t>primeiro nome</t>
-  </si>
-  <si>
-    <t>ultimo nome</t>
-  </si>
-  <si>
     <t>telefone</t>
   </si>
   <si>
@@ -61,15 +46,9 @@
     <t>cidade</t>
   </si>
   <si>
-    <t>endereço</t>
-  </si>
-  <si>
     <t>estado</t>
   </si>
   <si>
-    <t>codigo postal</t>
-  </si>
-  <si>
     <t>Test123</t>
   </si>
   <si>
@@ -110,6 +89,27 @@
   </si>
   <si>
     <t>rodrigovilnateste@rstinet.com</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>confirmasenha</t>
+  </si>
+  <si>
+    <t>primeironome</t>
+  </si>
+  <si>
+    <t>ultimonome</t>
+  </si>
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>codigopostal</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,88 +663,88 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -774,7 +774,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A0B2B-E659-44C6-A1CE-6954B3D336D3}">
   <dimension ref="A6:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -783,12 +785,12 @@
   <sheetData>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF154C33-F9FC-4A40-9F0E-30A3CAD8A5AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CA084-298E-456C-B5CB-6896B9773805}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>Produto busca</t>
   </si>
   <si>
-    <t>HP Z4000 WIRELESS MOUSE</t>
-  </si>
-  <si>
     <t>RodrigoVil55</t>
   </si>
   <si>
@@ -110,13 +107,16 @@
   </si>
   <si>
     <t>codigopostal</t>
+  </si>
+  <si>
+    <t>KENSINGTON ORBIT 72337 TRACKBALL WITH SCROLL RING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF2A2A2A"/>
+      <name val="LocalRobotoRegular"/>
     </font>
   </fonts>
   <fills count="4">
@@ -309,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -327,6 +333,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -644,11 +653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BADCF65-26F1-47F3-B466-D5B03A486648}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
@@ -661,24 +670,24 @@
     <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>1</v>
@@ -690,21 +699,21 @@
         <v>3</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -737,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="12" t="s">
@@ -755,10 +764,10 @@
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="E5" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="13"/>
     </row>
   </sheetData>
@@ -772,28 +781,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A0B2B-E659-44C6-A1CE-6954B3D336D3}">
-  <dimension ref="A6:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
+    <row r="2" spans="1:1" ht="56.25">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37CA084-298E-456C-B5CB-6896B9773805}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61886C0F-1AB2-4C49-9615-062759360FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>senha</t>
   </si>
@@ -109,7 +109,13 @@
     <t>codigopostal</t>
   </si>
   <si>
-    <t>KENSINGTON ORBIT 72337 TRACKBALL WITH SCROLL RING</t>
+    <t>Produto busca erro</t>
+  </si>
+  <si>
+    <t>Kingston Mouse</t>
+  </si>
+  <si>
+    <t>mouse</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A0B2B-E659-44C6-A1CE-6954B3D336D3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -790,16 +796,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="56.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61886C0F-1AB2-4C49-9615-062759360FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF5DE1C-9FCB-4152-ABDE-9939012F14B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
@@ -112,10 +112,10 @@
     <t>Produto busca erro</t>
   </si>
   <si>
-    <t>Kingston Mouse</t>
-  </si>
-  <si>
     <t>mouse</t>
+  </si>
+  <si>
+    <t>KingstonMouse</t>
   </si>
 </sst>
 </file>
@@ -790,7 +790,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -809,10 +809,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF5DE1C-9FCB-4152-ABDE-9939012F14B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0B3C6F-C053-4B2B-93F0-1E0BE540158F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,6 @@
     <t>Produto busca</t>
   </si>
   <si>
-    <t>RodrigoVil55</t>
-  </si>
-  <si>
-    <t>rodrigovilnateste@rstinet.com</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -116,6 +110,12 @@
   </si>
   <si>
     <t>KingstonMouse</t>
+  </si>
+  <si>
+    <t>bvilhena</t>
+  </si>
+  <si>
+    <t>rodrigovil@rstinet.com</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BADCF65-26F1-47F3-B466-D5B03A486648}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,22 +678,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>1</v>
@@ -705,21 +705,21 @@
         <v>3</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934A0B2B-E659-44C6-A1CE-6954B3D336D3}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -804,15 +804,15 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0B3C6F-C053-4B2B-93F0-1E0BE540158F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F6018-BBCA-4920-91F9-128456575409}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
@@ -112,17 +112,17 @@
     <t>KingstonMouse</t>
   </si>
   <si>
-    <t>bvilhena</t>
-  </si>
-  <si>
-    <t>rodrigovil@rstinet.com</t>
+    <t>Braulioteste3</t>
+  </si>
+  <si>
+    <t>teste3@teste.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,14 @@
       <color rgb="FF2A2A2A"/>
       <name val="LocalRobotoRegular"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -321,7 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -342,6 +350,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -657,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BADCF65-26F1-47F3-B466-D5B03A486648}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,6 +784,9 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="E8" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92F6018-BBCA-4920-91F9-128456575409}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCFAEC-DBC0-4291-ABBF-4D4ADDD3B683}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>KingstonMouse</t>
   </si>
   <si>
-    <t>Braulioteste3</t>
-  </si>
-  <si>
-    <t>teste3@teste.com.br</t>
+    <t>Braulioteste4</t>
+  </si>
+  <si>
+    <t>teste4@teste.com.br</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFCFAEC-DBC0-4291-ABBF-4D4ADDD3B683}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3308E1-A17F-4906-BB4A-E9C038347FC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>KingstonMouse</t>
   </si>
   <si>
-    <t>Braulioteste4</t>
-  </si>
-  <si>
-    <t>teste4@teste.com.br</t>
+    <t>Braulioteste5</t>
+  </si>
+  <si>
+    <t>teste5@teste.com.br</t>
   </si>
 </sst>
 </file>
@@ -669,7 +669,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
+++ b/src/main/java/br/com/rsinet/hub_tdd/cadastro/cadastro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodrigo.vilhena\Documents\AvaliacaoTDD\AvaliacaoTDD\src\main\java\br\com\rsinet\hub_tdd\cadastro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3308E1-A17F-4906-BB4A-E9C038347FC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251BBF0D-E78C-4992-92DF-87AC92CA0DE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{335E1E31-5428-4F3C-9976-AAC697D51952}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -70,12 +70,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t>33333555</t>
-  </si>
-  <si>
-    <t>22444445555</t>
-  </si>
-  <si>
     <t>t123123</t>
   </si>
   <si>
@@ -112,10 +106,16 @@
     <t>KingstonMouse</t>
   </si>
   <si>
-    <t>Braulioteste5</t>
-  </si>
-  <si>
-    <t>teste5@teste.com.br</t>
+    <t>brvilhena</t>
+  </si>
+  <si>
+    <t>avaliacao@tdd.com</t>
+  </si>
+  <si>
+    <t>02145000</t>
+  </si>
+  <si>
+    <t>02014225012</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -351,6 +350,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -669,7 +669,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -686,89 +686,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="K1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5">
+        <v>11945568745</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -777,16 +777,18 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="E5" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="E8" s="16"/>
+      <c r="E8" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -813,18 +815,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>24</v>
+      <c r="A2" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
